--- a/biology/Histoire de la zoologie et de la botanique/Alexandre_Acloque/Alexandre_Acloque.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alexandre_Acloque/Alexandre_Acloque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alexandre Acloque, né le 12 janvier 1871 à Auxi-le-Château (Pas-de-Calais) et mort le 7 décembre 1941 à Paris 16e[1], est un naturaliste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexandre Acloque, né le 12 janvier 1871 à Auxi-le-Château (Pas-de-Calais) et mort le 7 décembre 1941 à Paris 16e, est un naturaliste français.
 Il a publié de nombreux ouvrages de botanique, d'ornithologie et d'entomologie et publié des articles dans plusieurs revues. Il fut nommé rédacteur en chef en 1894 de la revue Le Monde des plantes, bimensuel, 78, rue de Flore, Le Mans (Sarthe). Il ne l'est plus dans la nouvelle formule (trimestrielle) éditée à partir du 1er janvier 1899.
-En 1912, il est nommé officier d'Académie[2].
-En 1914, dans la liste de botanistes français dressée par Le Monde des plantes, il est indiqué qu'il exerce la profession de publiciste et qu'il habite à Wimereux (Pas-de-Calais) [3].
+En 1912, il est nommé officier d'Académie.
+En 1914, dans la liste de botanistes français dressée par Le Monde des plantes, il est indiqué qu'il exerce la profession de publiciste et qu'il habite à Wimereux (Pas-de-Calais) .
 Son acte de décès indique qu'il est professeur de latin.
 </t>
         </is>
@@ -515,10 +527,12 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Henri Noël Augustin Acloque et de Victorine Aimée Fanien
-Il épouse à Tourcoing le 3 septembre 1902, Marie-Julie Tanghe, à laquelle il était toujours marié à son décès[4].
+Il épouse à Tourcoing le 3 septembre 1902, Marie-Julie Tanghe, à laquelle il était toujours marié à son décès.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier d'Académie (1912)</t>
         </is>
@@ -579,9 +595,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ouvrages
-Les Champignons, au point de vue biologique, économique et taxonomique. 1892, 1 vol., in-16 de 328 p., avec 60 fig., Bibliothèque scientifique contemporaine.
-Les Lichens, étude sur l'anatomie, la physiologie et la morphologie de l'organisation lichénique, 1893, 1 vol., in-16 de 376 p., avec 82 fig., Bibliothèque scientifique contemporaine [1]
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Champignons, au point de vue biologique, économique et taxonomique. 1892, 1 vol., in-16 de 328 p., avec 60 fig., Bibliothèque scientifique contemporaine.
+Les Lichens, étude sur l'anatomie, la physiologie et la morphologie de l'organisation lichénique, 1893, 1 vol., in-16 de 376 p., avec 82 fig., Bibliothèque scientifique contemporaine 
 Flore de France, contenant la description des Espèces Indigènes disposés en tableaux analytiques et illustrée de 2165 figures représentant les types caractéristiques des genres et des sous-genres. Lettre préface de M.Bureau, professeur au Muséum, Paris, 1894, 1 vol., in-18 jésus de 816 p., avec 2165 fig. Éditeur: Librairie J.-B. Baillière &amp; Fils.
 Faune de France contenant la description des espèces indigènes disposées en tableaux analytiques et illustrée de figures représentant les types caractéristiques des genres. Préface de Edmond Perrier, professeur au Muséum. (1896-1900). Éditeur: Librairie J.-B. Baillière &amp; Fils.
 Mammifères , 1 vol., in-18 de 84 p., avec 209 fig.
@@ -589,9 +610,9 @@
 Poissons, Reptiles, Batraciens, Protochordés, 1 vol., in-18 de 210 p., avec 294 fig.
 Coléoptères, 1 vol., in-18 de 466 p., avec 1052 fig.
 Orthoptères, Névroptères, Hyménoptères, Lépidoptères, Hémiptères, Diptères, Aphaniptères, Thysanoptères, Rhipiptères, 1 vol., in-18 de 516 p., avec 2235 fig.
-Thysanoures, Myriopodes, Arachnides, Crustacés, Némathelminthes, Lophostomes, Vers, Mollusques, Polypes, Spongiaires, Protozoaires, 1 vol., in-18 de 500 p., avec 1664 fig. [2]
+Thysanoures, Myriopodes, Arachnides, Crustacés, Némathelminthes, Lophostomes, Vers, Mollusques, Polypes, Spongiaires, Protozoaires, 1 vol., in-18 de 500 p., avec 1664 fig. 
 Les insectes nuisibles, 1 vol. in-8, 192 p., avec 67 fig., 1897
-Scènes de la vie des insectes, 1 vol. in-8, illustré de 173 fig., 1897, éditions C. Paillart à Abbeville.[3]
+Scènes de la vie des insectes, 1 vol. in-8, illustré de 173 fig., 1897, éditions C. Paillart à Abbeville.
 Fleurs et plantes, 1 vol. in-8, 1898
 Le monde sous-marin, 1 vol. in-8, 1899
 Sous le Microscope, 1 vol. in-8, illustré de 313 figures, 316p. , 1900
@@ -601,13 +622,47 @@
 Alexandre Acloque, Flores régionales de France : Flore de La Région méditerranéenne de la France, Alpes-Maritimes, Var, Bouches-du-Rhône, Gard, Hérault, Aude, Pyrénées orientales, Corse, Librairie J.-B. Baillière &amp; FilsContenant la description de toutes les espèces indigènes disposées en tableaux analytiques, et illustrée de 2165 figures représentant les types caractéristiques des genres et des sous-genres.
 Alexandre Acloque, Flores régionales de France : Flore de l'Ouest de la France, Charente, Charente-Inférieure, Deux-Sèvres, Vendée, Loire-Inférieure, Morbihan, Finistère, Côtes-du-Nord, Ille-et-Vilaine, Seine-Inférieure, Eure, Calvados, Orne, Manche, Mayenne, Sarthe, Maine-et-Loire, Librairie J.-B. Baillière &amp; FilsContenant la description de toutes les espèces indigènes disposées en tableaux analytiques, et illustrée de 2165 figures représentant les types caractéristiques des genres et des sous-genres.
 Alexandre Acloque, Flores régionales de France : Flore des Environs de Paris, Seine, Seine-et-Oise, Oise, Seine-et-Marne, Loiret, Eure-et-Loir, Librairie J.-B. Baillière &amp; Fils, 816 p.Contenant la description de toutes les espèces indigènes disposées en tableaux analytiques, et illustrée de .... figures représentant les types caractéristiques des genres et des sous-genres.
-Nos pêcheurs de haute mer, (en 2 parties: Nos pêcheurs à  Terre-Neuve et Nos  pêcheurs en Islande), 1 vol. in-4, 1904, édition de la Maison Mame à Tours. [4]
+Nos pêcheurs de haute mer, (en 2 parties: Nos pêcheurs à  Terre-Neuve et Nos  pêcheurs en Islande), 1 vol. in-4, 1904, édition de la Maison Mame à Tours. 
 Alexandre Acloque et Casimir Cépède, Observations biologiques et écologiques sur la flore de Wimereux et des environs, Boulogne-sur-Mer, Imprimerie G. Hamain, 1910, 48 p..
-Sous les flots, mémoire d'un crabe, 1 vol. in-8, 1904 [5]
-Les merveilles de la vie végétale, 1 vol. in-8, 1912, édition "La Bonne Presse", rue Bayard à Paris. [6]
-Zigzags au pays de la science, 1vol., 366 p., 1913, édition de la Maison Mame à Tours.
-Articles
-Alexandre Acloque, « Moquin-Tandon, Naturaliste français (1804-1863) », Les Contemporains, vol. 15,‎ 1907, p. 1‑16.
+Sous les flots, mémoire d'un crabe, 1 vol. in-8, 1904 
+Les merveilles de la vie végétale, 1 vol. in-8, 1912, édition "La Bonne Presse", rue Bayard à Paris. 
+Zigzags au pays de la science, 1vol., 366 p., 1913, édition de la Maison Mame à Tours.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alexandre_Acloque</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexandre_Acloque</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ses œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Alexandre Acloque, « Moquin-Tandon, Naturaliste français (1804-1863) », Les Contemporains, vol. 15,‎ 1907, p. 1‑16.
 Dans la revue Cosmos - revue encyclopédique hebdomadaire des progrès des sciences et de leurs applications aux arts et à l'industrie.
 Alexandre Acloque, « Le pistil des Conifères », Cosmos, no 1002,‎ 1904.
 Alexandre Acloque, « Plantes ornementales à rhizome dormant », Cosmos, no 1025,‎ 1904.
